--- a/files/Example.xlsx
+++ b/files/Example.xlsx
@@ -14,7 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>Параметры графика</t>
+  </si>
+  <si>
+    <t>x_1</t>
+  </si>
+  <si>
+    <t>y_1</t>
+  </si>
+  <si>
+    <t>y_2</t>
+  </si>
   <si>
     <t>Подпись оси x</t>
   </si>
@@ -35,10 +47,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -46,30 +58,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,6 +85,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -89,114 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,36 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +459,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -505,154 +524,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,12 +1059,12 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
@@ -1055,165 +1075,181 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-      <c r="D1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
-        <f t="shared" ref="E1:E10" si="0">C1+B1/2</f>
-        <v>10.5</v>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" ref="E2:E11" si="0">C2+B2/2</f>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
       <c r="C4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12.5</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" spans="2:5">
+    <row r="5" ht="13.5" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="2:5">
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:5">
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" spans="2:5">
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="2:5">
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="2:5">
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" spans="2:5">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1"/>
     <row r="12" ht="13.5" customHeight="1"/>
     <row r="13" ht="13.5" customHeight="1"/>
     <row r="14" ht="13.5" customHeight="1"/>

--- a/files/Example.xlsx
+++ b/files/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9204"/>
+    <workbookView windowWidth="10848" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Параметры графика</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>y_1</t>
+  </si>
+  <si>
+    <t>x_2</t>
   </si>
   <si>
     <t>y_2</t>
@@ -47,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -71,9 +74,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -85,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -96,126 +219,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,21 +432,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,158 +509,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1056,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="14.7777777777778" customWidth="1"/>
@@ -1082,15 +1088,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1108,7 +1114,7 @@
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1126,7 +1132,7 @@
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1252,7 +1258,9 @@
     </row>
     <row r="12" ht="13.5" customHeight="1"/>
     <row r="13" ht="13.5" customHeight="1"/>
-    <row r="14" ht="13.5" customHeight="1"/>
+    <row r="14" ht="13.5" customHeight="1" spans="6:6">
+      <c r="F14" s="3"/>
+    </row>
     <row r="15" ht="13.5" customHeight="1"/>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
